--- a/dist/document/dest/2020/10/doctors/94.xlsx
+++ b/dist/document/dest/2020/10/doctors/94.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>49800</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>638</v>
       </c>
-      <c r="C3" s="1">
-        <v>10877900</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>604</v>
       </c>
-      <c r="C4" s="1">
-        <v>5979600</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>238</v>
       </c>
-      <c r="C5" s="1">
-        <v>821100</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>320</v>
       </c>
-      <c r="C6" s="1">
-        <v>2780800</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>79960</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -471,7 +453,7 @@
         <v>1840</v>
       </c>
       <c r="C8" s="1">
-        <v>20589160</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/94.xlsx
+++ b/dist/document/dest/2020/10/doctors/94.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alpha Choay (VN)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="C2" s="1">
+        <v>156400</v>
       </c>
     </row>
     <row r="3">
@@ -410,7 +413,10 @@
         <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>638</v>
+        <v>386</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6581300</v>
       </c>
     </row>
     <row r="4">
@@ -418,7 +424,10 @@
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>604</v>
+        <v>354</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3504600</v>
       </c>
     </row>
     <row r="5">
@@ -426,39 +435,70 @@
         <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B5" s="1">
-        <v>238</v>
+        <v>140</v>
+      </c>
+      <c r="C5" s="1">
+        <v>483000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>50700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Voltaren 50 (Diclofenac 50)</v>
+        <v>Philiver (Carduus, vitamin..)</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120750</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B8" s="1">
+        <v>226</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1963940</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Voltaren 75  (Diclofenac 75)</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B8" s="1">
-        <v>1840</v>
-      </c>
-      <c r="C8" s="1">
-        <v>NaN</v>
+      <c r="B10" s="1">
+        <v>1254</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12996690</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>